--- a/data_year/zb/文化/文物业基本情况/文物业举办陈列展览.xlsx
+++ b/data_year/zb/文化/文物业基本情况/文物业举办陈列展览.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,688 +498,469 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>116</v>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>2128</v>
+      </c>
       <c r="E2" t="n">
-        <v>17752</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>26704</v>
+      </c>
+      <c r="F2" t="n">
+        <v>23784</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4896</v>
+      </c>
+      <c r="H2" t="n">
+        <v>30156</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3419</v>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>33</v>
+      </c>
+      <c r="L2" t="n">
+        <v>28028</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1360</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>140</v>
+      </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1227</v>
+      </c>
       <c r="E3" t="n">
-        <v>8644</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>16921</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12278</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5360</v>
+      </c>
+      <c r="H3" t="n">
+        <v>19190</v>
+      </c>
       <c r="I3" t="n">
-        <v>3463</v>
+        <v>2243</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>26</v>
+      </c>
+      <c r="L3" t="n">
+        <v>17963</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1412</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>172</v>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>2600</v>
+      </c>
       <c r="E4" t="n">
-        <v>8111</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>20115</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14503</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6023</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22279</v>
+      </c>
       <c r="I4" t="n">
-        <v>5976</v>
+        <v>2128</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>36</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19679</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1581</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>1582</v>
+      </c>
       <c r="E5" t="n">
-        <v>5809</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+        <v>7650</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5873</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2067</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8392</v>
+      </c>
       <c r="I5" t="n">
-        <v>4153</v>
+        <v>732</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6810</v>
+      </c>
+      <c r="M5" t="n">
+        <v>422</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>180</v>
+      </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>3233</v>
+      </c>
       <c r="E6" t="n">
-        <v>5090</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+        <v>19565</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13078</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6390</v>
+      </c>
+      <c r="H6" t="n">
+        <v>21170</v>
+      </c>
       <c r="I6" t="n">
-        <v>1828</v>
+        <v>1566</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>39</v>
+      </c>
+      <c r="L6" t="n">
+        <v>17937</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1522</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>184</v>
+      </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>3817</v>
+      </c>
       <c r="E7" t="n">
-        <v>5929</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+        <v>21154</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14193</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6780</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22664</v>
+      </c>
       <c r="I7" t="n">
-        <v>2034</v>
+        <v>1466</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>44</v>
+      </c>
+      <c r="L7" t="n">
+        <v>18847</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1507</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>141</v>
+      </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>5292</v>
+      </c>
       <c r="E8" t="n">
-        <v>5879</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+        <v>23109</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15812</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7229</v>
+      </c>
+      <c r="H8" t="n">
+        <v>24621</v>
+      </c>
       <c r="I8" t="n">
-        <v>1987</v>
+        <v>1463</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>49</v>
+      </c>
+      <c r="L8" t="n">
+        <v>19329</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1439</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>206</v>
+      </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>6052</v>
+      </c>
       <c r="E9" t="n">
-        <v>7689</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+        <v>24611</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16749</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7603</v>
+      </c>
+      <c r="H9" t="n">
+        <v>26045</v>
+      </c>
       <c r="I9" t="n">
-        <v>2992</v>
+        <v>1394</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>19</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="L9" t="n">
+        <v>19993</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1487</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>6473</v>
+      </c>
       <c r="E10" t="n">
-        <v>8364</v>
+        <v>26346</v>
       </c>
       <c r="F10" t="n">
-        <v>5705</v>
+        <v>18145</v>
       </c>
       <c r="G10" t="n">
-        <v>3433</v>
+        <v>7918</v>
       </c>
       <c r="H10" t="n">
-        <v>10487</v>
+        <v>27925</v>
       </c>
       <c r="I10" t="n">
-        <v>2106</v>
+        <v>1452</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>17</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>127</v>
+      </c>
+      <c r="L10" t="n">
+        <v>21452</v>
+      </c>
       <c r="M10" t="n">
-        <v>1271</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>1023</v>
+        <v>7667</v>
       </c>
       <c r="E11" t="n">
-        <v>14057</v>
+        <v>28701</v>
       </c>
       <c r="F11" t="n">
-        <v>10449</v>
+        <v>19501</v>
       </c>
       <c r="G11" t="n">
-        <v>4590</v>
+        <v>9431</v>
       </c>
       <c r="H11" t="n">
-        <v>16520</v>
+        <v>30702</v>
       </c>
       <c r="I11" t="n">
-        <v>2449</v>
+        <v>1973</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L11" t="n">
-        <v>15497</v>
+        <v>23053</v>
       </c>
       <c r="M11" t="n">
-        <v>1376</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>2128</v>
+        <v>7641</v>
       </c>
       <c r="E12" t="n">
-        <v>26704</v>
+        <v>27719</v>
       </c>
       <c r="F12" t="n">
-        <v>23784</v>
+        <v>20009</v>
       </c>
       <c r="G12" t="n">
-        <v>4896</v>
+        <v>7582</v>
       </c>
       <c r="H12" t="n">
-        <v>30156</v>
+        <v>28924</v>
       </c>
       <c r="I12" t="n">
-        <v>3419</v>
+        <v>1182</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L12" t="n">
-        <v>28028</v>
+        <v>21283</v>
       </c>
       <c r="M12" t="n">
-        <v>1360</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>1227</v>
+        <v>9714</v>
       </c>
       <c r="E13" t="n">
-        <v>16921</v>
+        <v>31931</v>
       </c>
       <c r="F13" t="n">
-        <v>12278</v>
+        <v>23361</v>
       </c>
       <c r="G13" t="n">
-        <v>5360</v>
+        <v>8289</v>
       </c>
       <c r="H13" t="n">
-        <v>19190</v>
+        <v>33205</v>
       </c>
       <c r="I13" t="n">
-        <v>2243</v>
+        <v>1220</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="L13" t="n">
-        <v>17963</v>
+        <v>23491</v>
       </c>
       <c r="M13" t="n">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>172</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>2600</v>
-      </c>
-      <c r="E14" t="n">
-        <v>20115</v>
-      </c>
-      <c r="F14" t="n">
-        <v>14503</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6023</v>
-      </c>
-      <c r="H14" t="n">
-        <v>22279</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2128</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>36</v>
-      </c>
-      <c r="L14" t="n">
-        <v>19679</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>30</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>1582</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7650</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5873</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2067</v>
-      </c>
-      <c r="H15" t="n">
-        <v>8392</v>
-      </c>
-      <c r="I15" t="n">
-        <v>732</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>10</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6810</v>
-      </c>
-      <c r="M15" t="n">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>180</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>3233</v>
-      </c>
-      <c r="E16" t="n">
-        <v>19565</v>
-      </c>
-      <c r="F16" t="n">
-        <v>13078</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6390</v>
-      </c>
-      <c r="H16" t="n">
-        <v>21170</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1566</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>39</v>
-      </c>
-      <c r="L16" t="n">
-        <v>17937</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>184</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>3817</v>
-      </c>
-      <c r="E17" t="n">
-        <v>21154</v>
-      </c>
-      <c r="F17" t="n">
-        <v>14193</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6780</v>
-      </c>
-      <c r="H17" t="n">
-        <v>22664</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1466</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>44</v>
-      </c>
-      <c r="L17" t="n">
-        <v>18847</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>141</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>5292</v>
-      </c>
-      <c r="E18" t="n">
-        <v>23109</v>
-      </c>
-      <c r="F18" t="n">
-        <v>15812</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7229</v>
-      </c>
-      <c r="H18" t="n">
-        <v>24621</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1463</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>49</v>
-      </c>
-      <c r="L18" t="n">
-        <v>19329</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>206</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>6052</v>
-      </c>
-      <c r="E19" t="n">
-        <v>24611</v>
-      </c>
-      <c r="F19" t="n">
-        <v>16749</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7603</v>
-      </c>
-      <c r="H19" t="n">
-        <v>26045</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1394</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>40</v>
-      </c>
-      <c r="L19" t="n">
-        <v>19993</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>314</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>6473</v>
-      </c>
-      <c r="E20" t="n">
-        <v>26346</v>
-      </c>
-      <c r="F20" t="n">
-        <v>18145</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7918</v>
-      </c>
-      <c r="H20" t="n">
-        <v>27925</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1452</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>127</v>
-      </c>
-      <c r="L20" t="n">
-        <v>21452</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>178</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>7667</v>
-      </c>
-      <c r="E21" t="n">
-        <v>28701</v>
-      </c>
-      <c r="F21" t="n">
-        <v>19501</v>
-      </c>
-      <c r="G21" t="n">
-        <v>9431</v>
-      </c>
-      <c r="H21" t="n">
-        <v>30702</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1973</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>28</v>
-      </c>
-      <c r="L21" t="n">
-        <v>23053</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>139</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>7641</v>
-      </c>
-      <c r="E22" t="n">
-        <v>27719</v>
-      </c>
-      <c r="F22" t="n">
-        <v>20009</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7582</v>
-      </c>
-      <c r="H22" t="n">
-        <v>28924</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1182</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>23</v>
-      </c>
-      <c r="L22" t="n">
-        <v>21283</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1194</v>
+        <v>1385</v>
       </c>
     </row>
   </sheetData>
